--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_1_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_1_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2807380.299254387</v>
+        <v>2889048.57146835</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2345916.138261949</v>
+        <v>2345916.13826195</v>
       </c>
     </row>
     <row r="8">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>216.6533621007964</v>
       </c>
       <c r="F2" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="G2" t="n">
         <v>15.21022140383137</v>
@@ -680,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852073</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="X2" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>212.5562620479446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,10 +749,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>125.5628735404864</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>74.49069889706287</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -798,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -829,19 +831,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>159.8350691069752</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.3870695882587</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>347.5041826365305</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>387.3948401441548</v>
       </c>
       <c r="G5" t="n">
-        <v>14.77699516265575</v>
+        <v>104.9232850512947</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>334.0905432484386</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,25 +977,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>14.82699225133931</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.5187078288111</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>79.71162794663287</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.69274760078356</v>
+        <v>82.69274760078366</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.4582034896018</v>
       </c>
       <c r="T6" t="n">
         <v>199.0309045537394</v>
@@ -1035,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>228.6111475289094</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>148.3584260604898</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>76.68600477300343</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>77.09370293181915</v>
       </c>
       <c r="Y7" t="n">
-        <v>76.42847837627633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>290.5286403308937</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>73.83379434090313</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13.28273443010488</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896916</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113178</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498011</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986279</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633777</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>105.0903281190959</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520949</v>
+        <v>200.1152919055739</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1658,7 +1660,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1765,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>29.11894700017296</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1828,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.74587998668902</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>130.198261695841</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>49.12199829633354</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2135,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498017</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2299,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>37.16603285299922</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056533</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2570,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,7 +2611,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>25.82923535834143</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2728,7 +2730,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>174.7430637258771</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2801,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,7 +2848,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>224.895256723152</v>
+        <v>129.3657750139577</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3041,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3086,7 +3088,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>73.95273020923163</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>283.4048578956733</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,10 +3322,10 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3427,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>80.42833066742627</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,7 +3441,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>61.7130759674744</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3518,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274071</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>195.5559609429032</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896913</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274061</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465691</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3949,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583891</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>13.53990283616475</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>138.9281674874337</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,10 +4033,10 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701364</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,10 +4143,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>42.94201120018273</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4189,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>243.5843210459876</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>306.4627520174973</v>
+        <v>787.0670914110435</v>
       </c>
       <c r="C2" t="n">
-        <v>306.4627520174973</v>
+        <v>787.0670914110435</v>
       </c>
       <c r="D2" t="n">
-        <v>306.4627520174973</v>
+        <v>521.1660470154206</v>
       </c>
       <c r="E2" t="n">
-        <v>306.4627520174973</v>
+        <v>302.3242671156262</v>
       </c>
       <c r="F2" t="n">
-        <v>40.56170762187421</v>
+        <v>36.42322272000341</v>
       </c>
       <c r="G2" t="n">
-        <v>25.19784761800413</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H2" t="n">
-        <v>25.19784761800413</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I2" t="n">
-        <v>25.19784761800413</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J2" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K2" t="n">
-        <v>135.7250809573684</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L2" t="n">
-        <v>330.2546714142364</v>
+        <v>330.254671414236</v>
       </c>
       <c r="M2" t="n">
-        <v>563.3128681098028</v>
+        <v>563.3128681098021</v>
       </c>
       <c r="N2" t="n">
-        <v>785.5101925369336</v>
+        <v>785.5101925369328</v>
       </c>
       <c r="O2" t="n">
-        <v>950.1371873885148</v>
+        <v>950.1371873885138</v>
       </c>
       <c r="P2" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q2" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R2" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S2" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T2" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U2" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V2" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="W2" t="n">
-        <v>1052.968135806668</v>
+        <v>787.0670914110435</v>
       </c>
       <c r="X2" t="n">
-        <v>787.0670914110444</v>
+        <v>787.0670914110435</v>
       </c>
       <c r="Y2" t="n">
-        <v>572.3637964131206</v>
+        <v>787.0670914110435</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>630.5154420583979</v>
+        <v>578.9273868630205</v>
       </c>
       <c r="C3" t="n">
-        <v>456.0624127772709</v>
+        <v>404.4743575818935</v>
       </c>
       <c r="D3" t="n">
-        <v>307.1280031160196</v>
+        <v>255.5399479206422</v>
       </c>
       <c r="E3" t="n">
-        <v>147.8905481105641</v>
+        <v>96.30249291518675</v>
       </c>
       <c r="F3" t="n">
-        <v>21.05936271613335</v>
+        <v>96.30249291518675</v>
       </c>
       <c r="G3" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H3" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I3" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J3" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K3" t="n">
-        <v>21.05936271613335</v>
+        <v>154.3302328992135</v>
       </c>
       <c r="L3" t="n">
-        <v>21.05936271613335</v>
+        <v>394.9337607940759</v>
       </c>
       <c r="M3" t="n">
-        <v>264.2940185443786</v>
+        <v>655.5433744062259</v>
       </c>
       <c r="N3" t="n">
-        <v>524.9036321565288</v>
+        <v>916.1529880183758</v>
       </c>
       <c r="O3" t="n">
-        <v>785.316696249021</v>
+        <v>977.3180709271187</v>
       </c>
       <c r="P3" t="n">
-        <v>977.3180709271197</v>
+        <v>977.3180709271187</v>
       </c>
       <c r="Q3" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R3" t="n">
-        <v>1052.968135806668</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="S3" t="n">
-        <v>1052.968135806668</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="T3" t="n">
-        <v>1052.968135806668</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="U3" t="n">
-        <v>1052.968135806668</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="V3" t="n">
-        <v>1052.968135806668</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="W3" t="n">
-        <v>798.730779078466</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="X3" t="n">
-        <v>798.730779078466</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="Y3" t="n">
-        <v>798.730779078466</v>
+        <v>747.1427238830886</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="C4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="D4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="E4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="F4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="G4" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="H4" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="I4" t="n">
-        <v>21.05936271613335</v>
+        <v>38.68360465423048</v>
       </c>
       <c r="J4" t="n">
-        <v>21.05936271613335</v>
+        <v>38.68360465423048</v>
       </c>
       <c r="K4" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L4" t="n">
-        <v>54.48163939360305</v>
+        <v>54.48163939360295</v>
       </c>
       <c r="M4" t="n">
-        <v>100.1098670955241</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N4" t="n">
-        <v>150.08777394865</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O4" t="n">
-        <v>180.2341645716486</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="Q4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="R4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="S4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="T4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="U4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="V4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="W4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="X4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="Y4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>772.8401885366893</v>
+        <v>865.7478179629345</v>
       </c>
       <c r="C5" t="n">
-        <v>403.8776715962776</v>
+        <v>865.7478179629345</v>
       </c>
       <c r="D5" t="n">
-        <v>52.86334570079225</v>
+        <v>865.7478179629345</v>
       </c>
       <c r="E5" t="n">
-        <v>52.86334570079225</v>
+        <v>865.7478179629345</v>
       </c>
       <c r="F5" t="n">
-        <v>45.91784495158878</v>
+        <v>474.4398986254043</v>
       </c>
       <c r="G5" t="n">
-        <v>30.99158721153245</v>
+        <v>368.4567824119754</v>
       </c>
       <c r="H5" t="n">
-        <v>30.99158721153245</v>
+        <v>30.99158721153239</v>
       </c>
       <c r="I5" t="n">
-        <v>30.99158721153245</v>
+        <v>30.99158721153239</v>
       </c>
       <c r="J5" t="n">
         <v>63.3372984893183</v>
       </c>
       <c r="K5" t="n">
-        <v>232.5599391817373</v>
+        <v>232.5599391817369</v>
       </c>
       <c r="L5" t="n">
-        <v>494.7722161923839</v>
+        <v>494.7722161923831</v>
       </c>
       <c r="M5" t="n">
-        <v>803.1404427365708</v>
+        <v>803.1404427365694</v>
       </c>
       <c r="N5" t="n">
-        <v>1101.866392029485</v>
+        <v>1101.866392029483</v>
       </c>
       <c r="O5" t="n">
-        <v>1338.757197245516</v>
+        <v>1338.757197245514</v>
       </c>
       <c r="P5" t="n">
-        <v>1503.263635927386</v>
+        <v>1503.263635927383</v>
       </c>
       <c r="Q5" t="n">
-        <v>1549.579360576623</v>
+        <v>1549.579360576619</v>
       </c>
       <c r="R5" t="n">
-        <v>1549.579360576623</v>
+        <v>1549.579360576619</v>
       </c>
       <c r="S5" t="n">
-        <v>1549.579360576623</v>
+        <v>1549.579360576619</v>
       </c>
       <c r="T5" t="n">
-        <v>1549.579360576623</v>
+        <v>1549.579360576619</v>
       </c>
       <c r="U5" t="n">
-        <v>1549.579360576623</v>
+        <v>1549.579360576619</v>
       </c>
       <c r="V5" t="n">
-        <v>1549.579360576623</v>
+        <v>1218.516473233049</v>
       </c>
       <c r="W5" t="n">
-        <v>1549.579360576623</v>
+        <v>865.7478179629345</v>
       </c>
       <c r="X5" t="n">
-        <v>1549.579360576623</v>
+        <v>865.7478179629345</v>
       </c>
       <c r="Y5" t="n">
-        <v>1159.440028600811</v>
+        <v>865.7478179629345</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>366.9559343156122</v>
+        <v>222.1333405200616</v>
       </c>
       <c r="C6" t="n">
-        <v>192.5029050344852</v>
+        <v>222.1333405200616</v>
       </c>
       <c r="D6" t="n">
-        <v>192.5029050344852</v>
+        <v>222.1333405200616</v>
       </c>
       <c r="E6" t="n">
-        <v>177.5261451846475</v>
+        <v>222.1333405200616</v>
       </c>
       <c r="F6" t="n">
-        <v>30.99158721153245</v>
+        <v>222.1333405200616</v>
       </c>
       <c r="G6" t="n">
-        <v>30.99158721153245</v>
+        <v>222.1333405200616</v>
       </c>
       <c r="H6" t="n">
-        <v>30.99158721153245</v>
+        <v>111.5083831172222</v>
       </c>
       <c r="I6" t="n">
-        <v>30.99158721153245</v>
+        <v>30.99158721153239</v>
       </c>
       <c r="J6" t="n">
-        <v>56.56309157527289</v>
+        <v>56.56309157527269</v>
       </c>
       <c r="K6" t="n">
-        <v>226.8897086170051</v>
+        <v>226.8897086170047</v>
       </c>
       <c r="L6" t="n">
-        <v>517.3192611265177</v>
+        <v>517.3192611265169</v>
       </c>
       <c r="M6" t="n">
-        <v>517.3192611265177</v>
+        <v>900.8401528692302</v>
       </c>
       <c r="N6" t="n">
-        <v>893.8030210042878</v>
+        <v>1284.361044611943</v>
       </c>
       <c r="O6" t="n">
-        <v>1208.814860114878</v>
+        <v>1313.757655433464</v>
       </c>
       <c r="P6" t="n">
-        <v>1444.636565258033</v>
+        <v>1549.579360576619</v>
       </c>
       <c r="Q6" t="n">
-        <v>1549.579360576623</v>
+        <v>1549.579360576619</v>
       </c>
       <c r="R6" t="n">
-        <v>1466.051332697043</v>
+        <v>1466.05133269704</v>
       </c>
       <c r="S6" t="n">
-        <v>1466.051332697043</v>
+        <v>1297.911733212594</v>
       </c>
       <c r="T6" t="n">
-        <v>1265.010014965993</v>
+        <v>1096.870415481544</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.805090014301</v>
+        <v>868.6654905298508</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.805090014301</v>
+        <v>868.6654905298508</v>
       </c>
       <c r="W6" t="n">
-        <v>782.5677332860989</v>
+        <v>637.7451394905484</v>
       </c>
       <c r="X6" t="n">
-        <v>574.7162330805661</v>
+        <v>429.8936392850155</v>
       </c>
       <c r="Y6" t="n">
-        <v>366.9559343156122</v>
+        <v>222.1333405200616</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.99158721153245</v>
+        <v>258.3091941140509</v>
       </c>
       <c r="C7" t="n">
-        <v>30.99158721153245</v>
+        <v>258.3091941140509</v>
       </c>
       <c r="D7" t="n">
-        <v>30.99158721153245</v>
+        <v>258.3091941140509</v>
       </c>
       <c r="E7" t="n">
-        <v>30.99158721153245</v>
+        <v>258.3091941140509</v>
       </c>
       <c r="F7" t="n">
-        <v>30.99158721153245</v>
+        <v>258.3091941140509</v>
       </c>
       <c r="G7" t="n">
-        <v>30.99158721153245</v>
+        <v>258.3091941140509</v>
       </c>
       <c r="H7" t="n">
-        <v>30.99158721153245</v>
+        <v>258.3091941140509</v>
       </c>
       <c r="I7" t="n">
-        <v>30.99158721153245</v>
+        <v>108.452198093354</v>
       </c>
       <c r="J7" t="n">
-        <v>30.99158721153245</v>
+        <v>30.99158721153239</v>
       </c>
       <c r="K7" t="n">
-        <v>36.06994770177063</v>
+        <v>36.06994770177042</v>
       </c>
       <c r="L7" t="n">
-        <v>98.09493531391541</v>
+        <v>98.09493531391502</v>
       </c>
       <c r="M7" t="n">
-        <v>173.880711300452</v>
+        <v>173.8807113004514</v>
       </c>
       <c r="N7" t="n">
-        <v>253.29908734542</v>
+        <v>253.2990873454192</v>
       </c>
       <c r="O7" t="n">
-        <v>310.638516345105</v>
+        <v>310.6385163451041</v>
       </c>
       <c r="P7" t="n">
-        <v>336.1816213179097</v>
+        <v>336.1816213179086</v>
       </c>
       <c r="Q7" t="n">
-        <v>336.1816213179097</v>
+        <v>336.1816213179086</v>
       </c>
       <c r="R7" t="n">
-        <v>336.1816213179097</v>
+        <v>336.1816213179086</v>
       </c>
       <c r="S7" t="n">
-        <v>336.1816213179097</v>
+        <v>336.1816213179086</v>
       </c>
       <c r="T7" t="n">
-        <v>336.1816213179097</v>
+        <v>336.1816213179086</v>
       </c>
       <c r="U7" t="n">
-        <v>336.1816213179097</v>
+        <v>336.1816213179086</v>
       </c>
       <c r="V7" t="n">
-        <v>336.1816213179097</v>
+        <v>336.1816213179086</v>
       </c>
       <c r="W7" t="n">
-        <v>336.1816213179097</v>
+        <v>336.1816213179086</v>
       </c>
       <c r="X7" t="n">
-        <v>108.1920704198924</v>
+        <v>258.3091941140509</v>
       </c>
       <c r="Y7" t="n">
-        <v>30.99158721153245</v>
+        <v>258.3091941140509</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1920.409918978288</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.680947310029</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117851</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2391.363323619549</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2391.363323619549</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>2017.897565358469</v>
       </c>
       <c r="Y8" t="n">
-        <v>2307.00975904241</v>
+        <v>1627.758233382657</v>
       </c>
     </row>
     <row r="9">
@@ -4857,55 +4859,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4920,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>566.5654221758658</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>397.6292392479589</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406182</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406182</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W10" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805472</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028587</v>
@@ -5066,7 +5068,7 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5075,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>879.2482765610119</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C13" t="n">
-        <v>710.312093633105</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D13" t="n">
-        <v>560.1954542207691</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383758</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404654</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119727</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119727</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119727</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119727</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V13" t="n">
-        <v>1387.841167119727</v>
+        <v>820.5263570570741</v>
       </c>
       <c r="W13" t="n">
-        <v>1387.841167119727</v>
+        <v>820.5263570570741</v>
       </c>
       <c r="X13" t="n">
-        <v>1281.689320534782</v>
+        <v>592.5368061590567</v>
       </c>
       <c r="Y13" t="n">
-        <v>1060.896741391252</v>
+        <v>390.400147668578</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5291,13 +5293,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
@@ -5309,19 +5311,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5364,7 +5366,7 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
         <v>2051.878056918008</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>882.7763375151577</v>
+        <v>388.5827690683476</v>
       </c>
       <c r="C16" t="n">
-        <v>713.8401545872508</v>
+        <v>388.5827690683476</v>
       </c>
       <c r="D16" t="n">
-        <v>563.7235151749151</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="W16" t="n">
-        <v>1209.499100520942</v>
+        <v>609.3753482118777</v>
       </c>
       <c r="X16" t="n">
-        <v>981.5095496229244</v>
+        <v>609.3753482118777</v>
       </c>
       <c r="Y16" t="n">
-        <v>882.7763375151577</v>
+        <v>388.5827690683476</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5537,10 +5539,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5549,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5580,28 +5582,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>563.7235867775516</v>
+        <v>550.2226492899333</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>857.5427825698951</v>
       </c>
       <c r="N18" t="n">
         <v>1661.954360834046</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>613.8011874802282</v>
+        <v>379.1484955647072</v>
       </c>
       <c r="C19" t="n">
-        <v>444.8650045523214</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D19" t="n">
-        <v>294.7483651399856</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E19" t="n">
-        <v>146.8352715575925</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F19" t="n">
-        <v>146.8352715575925</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5680,7 +5682,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W19" t="n">
-        <v>1244.231782352015</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X19" t="n">
-        <v>1016.242231453998</v>
+        <v>781.5895395384771</v>
       </c>
       <c r="Y19" t="n">
-        <v>795.449652310468</v>
+        <v>560.796960394947</v>
       </c>
     </row>
     <row r="20">
@@ -5750,28 +5752,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5783,13 +5785,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5832,22 +5834,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.683698656582</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1433.546326320615</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>693.7762810288177</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028587</v>
@@ -5938,22 +5940,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1379.229518531123</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>693.7762810288177</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5968,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
@@ -5990,16 +5992,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643324</v>
@@ -6008,25 +6010,25 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6069,19 +6071,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L24" t="n">
-        <v>1163.495507227045</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M24" t="n">
-        <v>1470.815640507006</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1800.678268171039</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>2080.218333389736</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>4437.149147719352</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>4148.02050893291</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>3893.336020727023</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>3603.918850690063</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,10 +6226,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,16 +6238,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
@@ -6257,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6306,16 +6308,16 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>550.2226492899333</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>857.5427825698951</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O27" t="n">
         <v>2331.418122136705</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>265.3924131404652</v>
+        <v>3803.838860774509</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404652</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S28" t="n">
-        <v>1322.408125380249</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T28" t="n">
-        <v>1098.622710169755</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U28" t="n">
-        <v>809.4940713833126</v>
+        <v>4347.940519017357</v>
       </c>
       <c r="V28" t="n">
-        <v>554.8095831774258</v>
+        <v>4093.25603081147</v>
       </c>
       <c r="W28" t="n">
-        <v>265.3924131404652</v>
+        <v>3803.838860774509</v>
       </c>
       <c r="X28" t="n">
-        <v>265.3924131404652</v>
+        <v>3803.838860774509</v>
       </c>
       <c r="Y28" t="n">
-        <v>265.3924131404652</v>
+        <v>3803.838860774509</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6458,55 +6460,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515099</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.70982261913</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899129</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L30" t="n">
-        <v>816.7950850315608</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M30" t="n">
-        <v>1124.115218311523</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>1453.977845975555</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>3796.266898524763</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431058</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436455</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042138</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>4660.934562929847</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>4437.149147719352</v>
       </c>
       <c r="U31" t="n">
-        <v>1271.749344574921</v>
+        <v>4306.476647705254</v>
       </c>
       <c r="V31" t="n">
-        <v>1017.064856369034</v>
+        <v>4306.476647705254</v>
       </c>
       <c r="W31" t="n">
-        <v>727.647686332073</v>
+        <v>4017.059477668293</v>
       </c>
       <c r="X31" t="n">
-        <v>499.6581354340557</v>
+        <v>4017.059477668293</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905255</v>
+        <v>3796.266898524763</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
@@ -6695,25 +6697,25 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
@@ -6722,28 +6724,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L33" t="n">
-        <v>816.7950850315608</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M33" t="n">
-        <v>1124.115218311523</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N33" t="n">
-        <v>1453.977845975555</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>245.130185042679</v>
+        <v>4168.996359003564</v>
       </c>
       <c r="C34" t="n">
-        <v>245.130185042679</v>
+        <v>4000.060176075657</v>
       </c>
       <c r="D34" t="n">
-        <v>245.130185042679</v>
+        <v>3849.943536663322</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>3702.030443080928</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>3702.030443080928</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>3533.855121400749</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>3533.855121400749</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431058</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436455</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042138</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="W34" t="n">
-        <v>245.130185042679</v>
+        <v>4571.437402977333</v>
       </c>
       <c r="X34" t="n">
-        <v>245.130185042679</v>
+        <v>4571.437402977333</v>
       </c>
       <c r="Y34" t="n">
-        <v>245.130185042679</v>
+        <v>4350.644823833803</v>
       </c>
     </row>
     <row r="35">
@@ -6932,43 +6934,43 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
@@ -7011,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L36" t="n">
-        <v>816.7950850315608</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M36" t="n">
-        <v>1124.115218311523</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
-        <v>1453.977845975555</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>665.6859735286132</v>
+        <v>496.6650364395585</v>
       </c>
       <c r="C37" t="n">
-        <v>496.7497906007063</v>
+        <v>327.7288535116516</v>
       </c>
       <c r="D37" t="n">
-        <v>346.6331511883706</v>
+        <v>327.7288535116516</v>
       </c>
       <c r="E37" t="n">
-        <v>265.3924131404652</v>
+        <v>327.7288535116516</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>327.7288535116516</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>159.5535318314722</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7111,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V37" t="n">
-        <v>955.1031435655738</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="W37" t="n">
-        <v>665.6859735286132</v>
+        <v>496.6650364395585</v>
       </c>
       <c r="X37" t="n">
-        <v>665.6859735286132</v>
+        <v>496.6650364395585</v>
       </c>
       <c r="Y37" t="n">
-        <v>665.6859735286132</v>
+        <v>496.6650364395585</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,40 +7186,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,19 +7250,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211721</v>
+        <v>550.2226492899333</v>
       </c>
       <c r="M39" t="n">
-        <v>966.6932390011339</v>
+        <v>857.5427825698951</v>
       </c>
       <c r="N39" t="n">
         <v>1661.954360834046</v>
@@ -7306,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1301.384996878203</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155885</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,40 +7423,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>732.3583290631005</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="C43" t="n">
-        <v>563.4221461351938</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D43" t="n">
-        <v>413.3055067228581</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404651</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404651</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471197</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7603,16 +7605,16 @@
         <v>1275.130855347409</v>
       </c>
       <c r="V43" t="n">
-        <v>1275.130855347409</v>
+        <v>1261.454185815929</v>
       </c>
       <c r="W43" t="n">
-        <v>1275.130855347409</v>
+        <v>972.0370157789685</v>
       </c>
       <c r="X43" t="n">
-        <v>1134.79937303687</v>
+        <v>744.0474648809511</v>
       </c>
       <c r="Y43" t="n">
-        <v>914.0067938933402</v>
+        <v>744.0474648809511</v>
       </c>
     </row>
     <row r="44">
@@ -7643,43 +7645,43 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V44" t="n">
         <v>3931.294970121731</v>
@@ -7722,25 +7724,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>841.8631140141295</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2315.73845358094</v>
       </c>
       <c r="P45" t="n">
         <v>2536.440602918915</v>
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>804.0893717830343</v>
+        <v>552.6620995918043</v>
       </c>
       <c r="C46" t="n">
-        <v>804.0893717830343</v>
+        <v>552.6620995918043</v>
       </c>
       <c r="D46" t="n">
-        <v>653.9727323706985</v>
+        <v>402.5454601794686</v>
       </c>
       <c r="E46" t="n">
-        <v>506.0596387883054</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F46" t="n">
         <v>359.1696912903951</v>
@@ -7801,19 +7803,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U46" t="n">
-        <v>1252.871501824582</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>1252.871501824582</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W46" t="n">
-        <v>1252.871501824582</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="X46" t="n">
-        <v>1024.881950926564</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="Y46" t="n">
-        <v>804.0893717830343</v>
+        <v>734.3105644220441</v>
       </c>
     </row>
   </sheetData>
@@ -8055,25 +8057,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>122.1609165114201</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K3" t="n">
-        <v>129.8481964236087</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>127.8064787429919</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>375.2833119014001</v>
+        <v>392.8337743093848</v>
       </c>
       <c r="N3" t="n">
-        <v>381.7094952808121</v>
+        <v>381.709495280812</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>192.6017322224374</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8301,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>70.85980037434052</v>
+        <v>458.2546405184958</v>
       </c>
       <c r="N6" t="n">
-        <v>438.4676877959112</v>
+        <v>445.5759018009047</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>105.3620886817106</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>104.0744641817182</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627882</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9012,10 +9014,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165115</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9246,13 +9248,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>29.47535963978208</v>
+        <v>15.83804904622809</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9264,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,25 +9482,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O21" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9717,28 +9719,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,16 +9959,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>15.83804904622792</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>423.3376789165115</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -9975,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,25 +10196,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>285.1031356539327</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10431,25 +10433,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>285.1031356539327</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>423.337678916511</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10668,25 +10670,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>285.1031356539327</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>423.337678916511</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,19 +10901,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>15.83804904622792</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>369.0893880493729</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10923,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11382,22 +11384,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>423.3376789165115</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>15.83804904622801</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.4192454642721</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836034</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583894</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985775</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238281</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>120.6193272699414</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>18.46936144652091</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23655,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>119.4965260180394</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>120.8387733654058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>37.04855940278682</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>117.371570167044</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23947,10 +23949,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>181.4186204990956</v>
       </c>
     </row>
     <row r="23">
@@ -24412,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338389</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24601,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>141.4175857402864</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>23.17774625772614</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24886,22 +24888,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>61.3420956754253</v>
+        <v>156.8715773846197</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>36.46651525504033</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>3.118140440917728</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>66.0056319791429</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>87.20075240006173</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25360,16 +25362,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25597,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>90.68139145567412</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836031</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985772</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1376433238279</v>
+        <v>238.5977404876633</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5229983365909</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>86.78148790160338</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26029,10 +26031,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>103.4919514463864</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037879</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -26077,16 +26079,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>42.65303135258978</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>769635.6044539642</v>
+        <v>769635.604453964</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>769635.604453964</v>
+        <v>769635.6044539642</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>769635.6044539642</v>
+        <v>769635.604453964</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>769635.6044539643</v>
+        <v>769635.6044539642</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>769635.6044539642</v>
+        <v>769635.6044539643</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.3716448194</v>
+      </c>
+      <c r="C2" t="n">
+        <v>636307.3716448193</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448197</v>
       </c>
-      <c r="C2" t="n">
-        <v>636307.3716448195</v>
-      </c>
-      <c r="D2" t="n">
-        <v>636307.3716448196</v>
-      </c>
       <c r="E2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="F2" t="n">
         <v>606095.0425934484</v>
       </c>
       <c r="G2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934488</v>
       </c>
       <c r="H2" t="n">
-        <v>606095.042593448</v>
+        <v>606095.0425934482</v>
       </c>
       <c r="I2" t="n">
-        <v>606095.0425934481</v>
+        <v>606095.0425934489</v>
       </c>
       <c r="J2" t="n">
-        <v>606095.0425934483</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="K2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="L2" t="n">
-        <v>606095.0425934483</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="M2" t="n">
-        <v>606095.0425934481</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="N2" t="n">
-        <v>606095.0425934483</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="O2" t="n">
         <v>606095.0425934484</v>
       </c>
       <c r="P2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934483</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110394.4548749499</v>
+        <v>110394.4548749495</v>
       </c>
       <c r="C3" t="n">
-        <v>138241.1818300993</v>
+        <v>138241.1818300988</v>
       </c>
       <c r="D3" t="n">
-        <v>300621.8974133494</v>
+        <v>300621.8974133504</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26386,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873124981</v>
+        <v>68875.69873124985</v>
       </c>
       <c r="K3" t="n">
-        <v>31952.9594241485</v>
+        <v>31952.95942414831</v>
       </c>
       <c r="L3" t="n">
-        <v>72609.89266179875</v>
+        <v>72609.89266179944</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>279327.2236236407</v>
+        <v>279327.2236236408</v>
       </c>
       <c r="C4" t="n">
-        <v>239463.3485659244</v>
+        <v>239463.3485659246</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007358</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
         <v>7916.731656007483</v>
@@ -26448,16 +26450,16 @@
         <v>7916.731656007483</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.73165600741</v>
       </c>
       <c r="N4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.73165600761</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007482</v>
+        <v>7916.731656007483</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50134.40740683336</v>
+        <v>50134.40740683334</v>
       </c>
       <c r="C5" t="n">
-        <v>60032.17562267178</v>
+        <v>60032.17562267171</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26488,28 +26490,28 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>196451.2857393958</v>
+        <v>196451.2857393957</v>
       </c>
       <c r="C6" t="n">
-        <v>198570.665626124</v>
+        <v>198570.6656261241</v>
       </c>
       <c r="D6" t="n">
-        <v>104909.3474521399</v>
+        <v>104909.347452139</v>
       </c>
       <c r="E6" t="n">
-        <v>-18969.05148817168</v>
+        <v>-18969.05148817209</v>
       </c>
       <c r="F6" t="n">
-        <v>506190.9849887243</v>
+        <v>506190.9849887246</v>
       </c>
       <c r="G6" t="n">
-        <v>506190.9849887243</v>
+        <v>506190.9849887247</v>
       </c>
       <c r="H6" t="n">
-        <v>506190.9849887239</v>
+        <v>506190.9849887241</v>
       </c>
       <c r="I6" t="n">
-        <v>506190.984988724</v>
+        <v>506190.9849887246</v>
       </c>
       <c r="J6" t="n">
         <v>437315.2862574745</v>
       </c>
       <c r="K6" t="n">
-        <v>474238.0255645758</v>
+        <v>474238.0255645762</v>
       </c>
       <c r="L6" t="n">
-        <v>433581.0923269255</v>
+        <v>433581.092326925</v>
       </c>
       <c r="M6" t="n">
-        <v>371389.9697548867</v>
+        <v>371389.9697548874</v>
       </c>
       <c r="N6" t="n">
+        <v>506190.9849887244</v>
+      </c>
+      <c r="O6" t="n">
+        <v>506190.9849887243</v>
+      </c>
+      <c r="P6" t="n">
         <v>506190.9849887242</v>
-      </c>
-      <c r="O6" t="n">
-        <v>506190.9849887242</v>
-      </c>
-      <c r="P6" t="n">
-        <v>506190.9849887245</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678962</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="C3" t="n">
-        <v>130.7784101792253</v>
+        <v>130.7784101792246</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541005</v>
@@ -26750,34 +26752,34 @@
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C4" t="n">
-        <v>387.3948401441557</v>
+        <v>387.3948401441548</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26814,13 +26816,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26829,7 +26831,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
     </row>
   </sheetData>
@@ -26957,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678962</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="C3" t="n">
-        <v>107.7650274924357</v>
+        <v>107.7650274924353</v>
       </c>
       <c r="D3" t="n">
-        <v>246.9652540378613</v>
+        <v>246.9652540378621</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C4" t="n">
-        <v>124.1528061924888</v>
+        <v>124.1528061924882</v>
       </c>
       <c r="D4" t="n">
-        <v>286.8924326103998</v>
+        <v>286.8924326104008</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516668</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="K4" t="n">
-        <v>124.1528061924886</v>
+        <v>124.1528061924882</v>
       </c>
       <c r="L4" t="n">
-        <v>286.8924326104</v>
+        <v>286.8924326104028</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="K4" t="n">
-        <v>124.1528061924888</v>
+        <v>124.1528061924882</v>
       </c>
       <c r="L4" t="n">
-        <v>286.8924326103998</v>
+        <v>286.8924326104008</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.4918077118137</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>91.44100766901636</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>165.2770079714653</v>
       </c>
       <c r="F2" t="n">
-        <v>143.6340117900446</v>
+        <v>143.6340117900448</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,10 +27399,10 @@
         <v>338.5273214908784</v>
       </c>
       <c r="I2" t="n">
-        <v>206.9091621893709</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644701</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S2" t="n">
         <v>206.9118586999128</v>
@@ -27439,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>85.99893476574641</v>
       </c>
       <c r="X2" t="n">
-        <v>106.4890667268022</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>173.681676608109</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27467,16 +27469,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>19.50633885289743</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2940166796957</v>
+        <v>62.80331778263279</v>
       </c>
       <c r="H3" t="n">
         <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828962</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703753</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>170.7637213332854</v>
@@ -27518,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27549,19 +27551,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>8.114410708933576</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H4" t="n">
         <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
-        <v>154.2024705022107</v>
+        <v>11.81540091395209</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839141</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871611</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.68702246598916</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R4" t="n">
         <v>175.4274210366964</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>7.178858984152498</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>19.4812055975566</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>309.8537101113611</v>
       </c>
       <c r="H5" t="n">
-        <v>334.0905432484386</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>190.2072075264478</v>
+        <v>190.2072075264479</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>116.843954892222</v>
+        <v>116.8439548922222</v>
       </c>
       <c r="S5" t="n">
-        <v>197.0397157291233</v>
+        <v>197.0397157291234</v>
       </c>
       <c r="T5" t="n">
         <v>220.7944124161532</v>
@@ -27673,16 +27675,16 @@
         <v>251.3035935196382</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,25 +27697,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>142.8180882040616</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.0622202054666</v>
       </c>
       <c r="H6" t="n">
-        <v>109.518707828811</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>79.71162794663283</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.4582034896018</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27755,7 +27757,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>23.08383563201022</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27792,10 +27794,10 @@
         <v>160.1304301278448</v>
       </c>
       <c r="I7" t="n">
-        <v>148.3584260604898</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>76.68600477300335</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.41450331463136</v>
+        <v>66.41450331463146</v>
       </c>
       <c r="R7" t="n">
         <v>166.6896206108343</v>
@@ -27837,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>148.615952457218</v>
       </c>
       <c r="Y7" t="n">
-        <v>142.1561749758185</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>74.74425144011389</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27898,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>253.9184641292318</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>166.5492457518324</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,13 +28067,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -30040,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-1.620037437533028e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30754,7 +30756,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -30900,7 +30902,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>4.901797486430345e-12</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09251611130367678</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H2" t="n">
-        <v>0.94748062488878</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I2" t="n">
-        <v>3.566727381035002</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J2" t="n">
-        <v>7.852189301760444</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K2" t="n">
-        <v>11.76839629324508</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L2" t="n">
-        <v>14.59973623455499</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M2" t="n">
-        <v>16.24501962895175</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N2" t="n">
-        <v>16.50788103019332</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O2" t="n">
-        <v>15.58792394841738</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P2" t="n">
-        <v>13.30393245060786</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544932</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>5.811515176679592</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S2" t="n">
-        <v>2.108210886332537</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4049892772318453</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U2" t="n">
-        <v>0.00740128890429414</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04950048351498144</v>
+        <v>0.04950048351498081</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4780704592104787</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I3" t="n">
-        <v>1.704292963125458</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J3" t="n">
-        <v>4.676710155246559</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K3" t="n">
-        <v>7.993242550750314</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L3" t="n">
-        <v>10.74790103688226</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M3" t="n">
-        <v>12.54229356430034</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N3" t="n">
-        <v>12.87425075418809</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O3" t="n">
-        <v>11.77742425104034</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P3" t="n">
-        <v>9.452421277523079</v>
+        <v>9.452421277522959</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.318693299210613</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R3" t="n">
-        <v>3.073372125605603</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9194497705523959</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1995216857467891</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U3" t="n">
-        <v>0.00325661075756457</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04149954254994848</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3689686601259058</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I4" t="n">
-        <v>1.248004425047542</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J4" t="n">
-        <v>2.934017658281358</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K4" t="n">
-        <v>4.821492307166741</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L4" t="n">
-        <v>6.169850171471433</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M4" t="n">
-        <v>6.505241928988742</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N4" t="n">
-        <v>6.35056181584803</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O4" t="n">
-        <v>5.865771705150903</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P4" t="n">
-        <v>5.019181037131949</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.475020785705232</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R4" t="n">
-        <v>1.865970340473138</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S4" t="n">
-        <v>0.723223846075011</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1773162272588708</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002263611411815374</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5257423524792973</v>
+        <v>0.5257423524792946</v>
       </c>
       <c r="H5" t="n">
-        <v>5.384258867328605</v>
+        <v>5.384258867328578</v>
       </c>
       <c r="I5" t="n">
-        <v>20.26868204395813</v>
+        <v>20.26868204395803</v>
       </c>
       <c r="J5" t="n">
-        <v>44.62172498873981</v>
+        <v>44.62172498873957</v>
       </c>
       <c r="K5" t="n">
-        <v>66.87639876918847</v>
+        <v>66.87639876918813</v>
       </c>
       <c r="L5" t="n">
-        <v>82.9660862888768</v>
+        <v>82.96608628887635</v>
       </c>
       <c r="M5" t="n">
-        <v>92.31575684978048</v>
+        <v>92.31575684978002</v>
       </c>
       <c r="N5" t="n">
-        <v>93.8095223087623</v>
+        <v>93.80952230876181</v>
       </c>
       <c r="O5" t="n">
-        <v>88.58167179129629</v>
+        <v>88.58167179129582</v>
       </c>
       <c r="P5" t="n">
-        <v>75.60240746446362</v>
+        <v>75.60240746446323</v>
       </c>
       <c r="Q5" t="n">
-        <v>56.77425946629877</v>
+        <v>56.77425946629847</v>
       </c>
       <c r="R5" t="n">
-        <v>33.02516304892769</v>
+        <v>33.02516304892752</v>
       </c>
       <c r="S5" t="n">
-        <v>11.980353857122</v>
+        <v>11.98035385712194</v>
       </c>
       <c r="T5" t="n">
-        <v>2.301437147978125</v>
+        <v>2.301437147978113</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04205938819834378</v>
+        <v>0.04205938819834356</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2812969577439941</v>
+        <v>0.2812969577439926</v>
       </c>
       <c r="H6" t="n">
-        <v>2.716736407685417</v>
+        <v>2.716736407685403</v>
       </c>
       <c r="I6" t="n">
-        <v>9.685004904782254</v>
+        <v>9.685004904782204</v>
       </c>
       <c r="J6" t="n">
-        <v>26.57639371387446</v>
+        <v>26.57639371387432</v>
       </c>
       <c r="K6" t="n">
-        <v>45.42328988272207</v>
+        <v>45.42328988272182</v>
       </c>
       <c r="L6" t="n">
-        <v>61.07721882945802</v>
+        <v>61.0772188294577</v>
       </c>
       <c r="M6" t="n">
-        <v>71.2742335476778</v>
+        <v>71.27423354767741</v>
       </c>
       <c r="N6" t="n">
-        <v>73.1606504265838</v>
+        <v>73.16065042658342</v>
       </c>
       <c r="O6" t="n">
-        <v>66.92770204709845</v>
+        <v>66.92770204709811</v>
       </c>
       <c r="P6" t="n">
-        <v>53.71538134323691</v>
+        <v>53.71538134323663</v>
       </c>
       <c r="Q6" t="n">
-        <v>35.90730990430353</v>
+        <v>35.90730990430334</v>
       </c>
       <c r="R6" t="n">
-        <v>17.46508655185957</v>
+        <v>17.46508655185948</v>
       </c>
       <c r="S6" t="n">
-        <v>5.224967614236027</v>
+        <v>5.224967614236</v>
       </c>
       <c r="T6" t="n">
-        <v>1.133824141082151</v>
+        <v>1.133824141082145</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01850637879894699</v>
+        <v>0.01850637879894689</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2358299199953243</v>
+        <v>0.2358299199953231</v>
       </c>
       <c r="H7" t="n">
-        <v>2.096742379594794</v>
+        <v>2.096742379594783</v>
       </c>
       <c r="I7" t="n">
-        <v>7.092048866768483</v>
+        <v>7.092048866768446</v>
       </c>
       <c r="J7" t="n">
-        <v>16.67317534366943</v>
+        <v>16.67317534366934</v>
       </c>
       <c r="K7" t="n">
-        <v>27.39914888672949</v>
+        <v>27.39914888672935</v>
       </c>
       <c r="L7" t="n">
-        <v>35.06147737821395</v>
+        <v>35.06147737821377</v>
       </c>
       <c r="M7" t="n">
-        <v>36.96741191344888</v>
+        <v>36.96741191344869</v>
       </c>
       <c r="N7" t="n">
-        <v>36.08840948437543</v>
+        <v>36.08840948437524</v>
       </c>
       <c r="O7" t="n">
-        <v>33.33348723715731</v>
+        <v>33.33348723715714</v>
       </c>
       <c r="P7" t="n">
-        <v>28.52255686925267</v>
+        <v>28.52255686925252</v>
       </c>
       <c r="Q7" t="n">
-        <v>19.74753993706302</v>
+        <v>19.74753993706292</v>
       </c>
       <c r="R7" t="n">
-        <v>10.60377076633522</v>
+        <v>10.60377076633516</v>
       </c>
       <c r="S7" t="n">
-        <v>4.109872333009423</v>
+        <v>4.109872333009402</v>
       </c>
       <c r="T7" t="n">
-        <v>1.007636930889113</v>
+        <v>1.007636930889108</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01286345018156316</v>
+        <v>0.01286345018156309</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32227,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,37 +32712,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32816,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,10 +32937,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,37 +32949,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33053,7 +33055,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,10 +33174,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,37 +33186,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33290,7 +33292,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,37 +33423,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33527,7 +33529,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,10 +33648,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,37 +33660,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33764,7 +33766,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,37 +33897,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34001,7 +34003,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,37 +34134,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34238,7 +34240,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,10 +34359,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,37 +34371,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34475,7 +34477,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>115.8239578194293</v>
+        <v>115.8239578194291</v>
       </c>
       <c r="L2" t="n">
-        <v>196.4945358150182</v>
+        <v>196.494535815018</v>
       </c>
       <c r="M2" t="n">
-        <v>235.4123198945115</v>
+        <v>235.4123198945113</v>
       </c>
       <c r="N2" t="n">
-        <v>224.4417418455866</v>
+        <v>224.4417418455864</v>
       </c>
       <c r="O2" t="n">
-        <v>166.289893789476</v>
+        <v>166.2898937894758</v>
       </c>
       <c r="P2" t="n">
-        <v>103.869644866821</v>
+        <v>103.8696448668208</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>134.6170405889698</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M3" t="n">
-        <v>245.6915715436821</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="N3" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="O3" t="n">
-        <v>263.0434990833254</v>
+        <v>61.78291202903321</v>
       </c>
       <c r="P3" t="n">
-        <v>193.94078250313</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>76.41420694903819</v>
+        <v>76.41420694903812</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>33.75987543178757</v>
+        <v>33.75987543178749</v>
       </c>
       <c r="M4" t="n">
-        <v>46.08911889082933</v>
+        <v>46.08911889082925</v>
       </c>
       <c r="N4" t="n">
-        <v>50.48273419507662</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="O4" t="n">
-        <v>30.45089961919058</v>
+        <v>30.4508996191905</v>
       </c>
       <c r="P4" t="n">
-        <v>2.297740302025437</v>
+        <v>2.297740302025373</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>32.67243563412729</v>
+        <v>32.67243563412705</v>
       </c>
       <c r="K5" t="n">
-        <v>170.9319602953727</v>
+        <v>170.9319602953723</v>
       </c>
       <c r="L5" t="n">
-        <v>264.86088586934</v>
+        <v>264.8608858693395</v>
       </c>
       <c r="M5" t="n">
-        <v>311.4830571153402</v>
+        <v>311.4830571153398</v>
       </c>
       <c r="N5" t="n">
-        <v>301.7433831241556</v>
+        <v>301.7433831241551</v>
       </c>
       <c r="O5" t="n">
-        <v>239.2836416323549</v>
+        <v>239.2836416323544</v>
       </c>
       <c r="P5" t="n">
-        <v>166.1681198806767</v>
+        <v>166.1681198806763</v>
       </c>
       <c r="Q5" t="n">
-        <v>46.78356025175396</v>
+        <v>46.78356025175366</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.82980238761661</v>
+        <v>25.82980238761647</v>
       </c>
       <c r="K6" t="n">
-        <v>172.0470879209417</v>
+        <v>172.0470879209414</v>
       </c>
       <c r="L6" t="n">
-        <v>293.363184353043</v>
+        <v>293.3631843530427</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>387.3948401441548</v>
       </c>
       <c r="N6" t="n">
-        <v>380.2866261391616</v>
+        <v>387.3948401441548</v>
       </c>
       <c r="O6" t="n">
-        <v>318.1937768793836</v>
+        <v>29.6935462843643</v>
       </c>
       <c r="P6" t="n">
-        <v>238.2037425688438</v>
+        <v>238.2037425688436</v>
       </c>
       <c r="Q6" t="n">
-        <v>106.0028235541311</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>5.12965706084664</v>
+        <v>5.129657060846498</v>
       </c>
       <c r="L7" t="n">
-        <v>62.65150263853009</v>
+        <v>62.65150263852991</v>
       </c>
       <c r="M7" t="n">
-        <v>76.55128887528946</v>
+        <v>76.55128887528927</v>
       </c>
       <c r="N7" t="n">
-        <v>80.22058186360402</v>
+        <v>80.22058186360383</v>
       </c>
       <c r="O7" t="n">
-        <v>57.91861515119698</v>
+        <v>57.91861515119681</v>
       </c>
       <c r="P7" t="n">
-        <v>25.80111613414616</v>
+        <v>25.80111613414601</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556543</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187466</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35732,10 +35734,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
@@ -35887,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>278.7330645958064</v>
+        <v>265.0957540022525</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O21" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>460.8305752819984</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>265.0957540022524</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>534.360840609957</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
-        <v>534.360840609957</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>534.360840609957</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37482,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>265.0957540022524</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>702.2839614473859</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37719,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556566</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187489</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>222.9314639777528</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
